--- a/NewProbableCasesOverTimeByCounty/2021-01-22.xlsx
+++ b/NewProbableCasesOverTimeByCounty/2021-01-22.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="342">
   <si>
-    <t>COVID-19 New Probable Cases by County, 11/1/2020 - 01/21/2021 at 9:30 AM CST</t>
+    <t>COVID-19 New Probable Cases by County, 11/1/2020 - 01/22/2021 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>New Probable 2021-01-21</t>
+  </si>
+  <si>
+    <t>New Probable 2021-01-22</t>
   </si>
   <si>
     <t>Anderson</t>
@@ -1233,6 +1236,7 @@
     <col min="81" max="81" width="12.0" customWidth="true"/>
     <col min="82" max="82" width="12.0" customWidth="true"/>
     <col min="83" max="83" width="12.0" customWidth="true"/>
+    <col min="84" max="84" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1495,10 +1499,13 @@
       <c r="CE3" t="s" s="10">
         <v>84</v>
       </c>
+      <c r="CF3" t="s" s="10">
+        <v>85</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -1745,11 +1752,14 @@
       </c>
       <c r="CE4" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -1995,12 +2005,15 @@
         <v>0.0</v>
       </c>
       <c r="CE5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF5" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -2247,11 +2260,14 @@
       </c>
       <c r="CE6" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -2498,11 +2514,14 @@
       </c>
       <c r="CE7" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -2748,12 +2767,15 @@
         <v>0.0</v>
       </c>
       <c r="CE8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CF8" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -3000,11 +3022,14 @@
       </c>
       <c r="CE9" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -3251,11 +3276,14 @@
       </c>
       <c r="CE10" t="n">
         <v>32.0</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -3502,11 +3530,14 @@
       </c>
       <c r="CE11" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -3752,12 +3783,15 @@
         <v>9.0</v>
       </c>
       <c r="CE12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF12" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -4004,11 +4038,14 @@
       </c>
       <c r="CE13" t="n">
         <v>10.0</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -4255,11 +4292,14 @@
       </c>
       <c r="CE14" t="n">
         <v>50.0</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -4506,11 +4546,14 @@
       </c>
       <c r="CE15" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -4757,11 +4800,14 @@
       </c>
       <c r="CE16" t="n">
         <v>7.0</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -5007,12 +5053,15 @@
         <v>0.0</v>
       </c>
       <c r="CE17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B18" t="n">
         <v>54.0</v>
@@ -5259,11 +5308,14 @@
       </c>
       <c r="CE18" t="n">
         <v>243.0</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>164.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -5509,12 +5561,15 @@
         <v>0.0</v>
       </c>
       <c r="CE19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF19" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B20" t="n">
         <v>0.0</v>
@@ -5760,12 +5815,15 @@
         <v>0.0</v>
       </c>
       <c r="CE20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF20" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B21" t="n">
         <v>0.0</v>
@@ -6011,12 +6069,15 @@
         <v>6.0</v>
       </c>
       <c r="CE21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
@@ -6263,11 +6324,14 @@
       </c>
       <c r="CE22" t="n">
         <v>11.0</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
@@ -6514,11 +6578,14 @@
       </c>
       <c r="CE23" t="n">
         <v>38.0</v>
+      </c>
+      <c r="CF23" t="n">
+        <v>70.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
@@ -6765,11 +6832,14 @@
       </c>
       <c r="CE24" t="n">
         <v>30.0</v>
+      </c>
+      <c r="CF24" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B25" t="n">
         <v>0.0</v>
@@ -7015,12 +7085,15 @@
         <v>4.0</v>
       </c>
       <c r="CE25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B26" t="n">
         <v>0.0</v>
@@ -7267,11 +7340,14 @@
       </c>
       <c r="CE26" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF26" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B27" t="n">
         <v>0.0</v>
@@ -7518,11 +7594,14 @@
       </c>
       <c r="CE27" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CF27" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B28" t="n">
         <v>0.0</v>
@@ -7769,11 +7848,14 @@
       </c>
       <c r="CE28" t="n">
         <v>22.0</v>
+      </c>
+      <c r="CF28" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B29" t="n">
         <v>0.0</v>
@@ -8019,12 +8101,15 @@
         <v>4.0</v>
       </c>
       <c r="CE29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF29" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B30" t="n">
         <v>0.0</v>
@@ -8271,11 +8356,14 @@
       </c>
       <c r="CE30" t="n">
         <v>12.0</v>
+      </c>
+      <c r="CF30" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B31" t="n">
         <v>0.0</v>
@@ -8522,11 +8610,14 @@
       </c>
       <c r="CE31" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CF31" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B32" t="n">
         <v>0.0</v>
@@ -8773,11 +8864,14 @@
       </c>
       <c r="CE32" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CF32" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B33" t="n">
         <v>0.0</v>
@@ -9024,11 +9118,14 @@
       </c>
       <c r="CE33" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF33" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
@@ -9274,12 +9371,15 @@
         <v>0.0</v>
       </c>
       <c r="CE34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF34" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B35" t="n">
         <v>0.0</v>
@@ -9526,11 +9626,14 @@
       </c>
       <c r="CE35" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF35" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B36" t="n">
         <v>0.0</v>
@@ -9777,11 +9880,14 @@
       </c>
       <c r="CE36" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF36" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B37" t="n">
         <v>0.0</v>
@@ -10028,11 +10134,14 @@
       </c>
       <c r="CE37" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF37" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B38" t="n">
         <v>0.0</v>
@@ -10279,11 +10388,14 @@
       </c>
       <c r="CE38" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF38" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
@@ -10529,12 +10641,15 @@
         <v>0.0</v>
       </c>
       <c r="CE39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF39" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B40" t="n">
         <v>0.0</v>
@@ -10781,11 +10896,14 @@
       </c>
       <c r="CE40" t="n">
         <v>14.0</v>
+      </c>
+      <c r="CF40" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B41" t="n">
         <v>0.0</v>
@@ -11031,12 +11149,15 @@
         <v>-23.0</v>
       </c>
       <c r="CE41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF41" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B42" t="n">
         <v>0.0</v>
@@ -11283,11 +11404,14 @@
       </c>
       <c r="CE42" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CF42" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B43" t="n">
         <v>0.0</v>
@@ -11533,12 +11657,15 @@
         <v>0.0</v>
       </c>
       <c r="CE43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF43" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B44" t="n">
         <v>0.0</v>
@@ -11785,11 +11912,14 @@
       </c>
       <c r="CE44" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CF44" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B45" t="n">
         <v>0.0</v>
@@ -12036,11 +12166,14 @@
       </c>
       <c r="CE45" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF45" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B46" t="n">
         <v>30.0</v>
@@ -12287,11 +12420,14 @@
       </c>
       <c r="CE46" t="n">
         <v>141.0</v>
+      </c>
+      <c r="CF46" t="n">
+        <v>146.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B47" t="n">
         <v>0.0</v>
@@ -12538,11 +12674,14 @@
       </c>
       <c r="CE47" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF47" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B48" t="n">
         <v>0.0</v>
@@ -12789,11 +12928,14 @@
       </c>
       <c r="CE48" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CF48" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B49" t="n">
         <v>0.0</v>
@@ -13040,11 +13182,14 @@
       </c>
       <c r="CE49" t="n">
         <v>56.0</v>
+      </c>
+      <c r="CF49" t="n">
+        <v>67.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B50" t="n">
         <v>0.0</v>
@@ -13290,12 +13435,15 @@
         <v>0.0</v>
       </c>
       <c r="CE50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF50" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B51" t="n">
         <v>0.0</v>
@@ -13542,11 +13690,14 @@
       </c>
       <c r="CE51" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF51" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B52" t="n">
         <v>0.0</v>
@@ -13793,11 +13944,14 @@
       </c>
       <c r="CE52" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CF52" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B53" t="n">
         <v>0.0</v>
@@ -14044,11 +14198,14 @@
       </c>
       <c r="CE53" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CF53" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B54" t="n">
         <v>0.0</v>
@@ -14294,12 +14451,15 @@
         <v>0.0</v>
       </c>
       <c r="CE54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF54" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B55" t="n">
         <v>0.0</v>
@@ -14546,11 +14706,14 @@
       </c>
       <c r="CE55" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CF55" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B56" t="n">
         <v>0.0</v>
@@ -14797,11 +14960,14 @@
       </c>
       <c r="CE56" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CF56" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B57" t="n">
         <v>0.0</v>
@@ -15048,11 +15214,14 @@
       </c>
       <c r="CE57" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF57" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B58" t="n">
         <v>0.0</v>
@@ -15298,12 +15467,15 @@
         <v>0.0</v>
       </c>
       <c r="CE58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF58" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B59" t="n">
         <v>0.0</v>
@@ -15549,12 +15721,15 @@
         <v>0.0</v>
       </c>
       <c r="CE59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF59" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B60" t="n">
         <v>137.0</v>
@@ -15801,11 +15976,14 @@
       </c>
       <c r="CE60" t="n">
         <v>272.0</v>
+      </c>
+      <c r="CF60" t="n">
+        <v>566.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B61" t="n">
         <v>0.0</v>
@@ -16051,12 +16229,15 @@
         <v>0.0</v>
       </c>
       <c r="CE61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF61" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B62" t="n">
         <v>0.0</v>
@@ -16303,11 +16484,14 @@
       </c>
       <c r="CE62" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="CF62" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B63" t="n">
         <v>0.0</v>
@@ -16554,11 +16738,14 @@
       </c>
       <c r="CE63" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CF63" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B64" t="n">
         <v>23.0</v>
@@ -16805,11 +16992,14 @@
       </c>
       <c r="CE64" t="n">
         <v>273.0</v>
+      </c>
+      <c r="CF64" t="n">
+        <v>201.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B65" t="n">
         <v>0.0</v>
@@ -17055,12 +17245,15 @@
         <v>0.0</v>
       </c>
       <c r="CE65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF65" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B66" t="n">
         <v>0.0</v>
@@ -17306,12 +17499,15 @@
         <v>0.0</v>
       </c>
       <c r="CE66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF66" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B67" t="n">
         <v>0.0</v>
@@ -17558,11 +17754,14 @@
       </c>
       <c r="CE67" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="CF67" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B68" t="n">
         <v>0.0</v>
@@ -17809,11 +18008,14 @@
       </c>
       <c r="CE68" t="n">
         <v>-2.0</v>
+      </c>
+      <c r="CF68" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B69" t="n">
         <v>0.0</v>
@@ -18059,12 +18261,15 @@
         <v>-1.0</v>
       </c>
       <c r="CE69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF69" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B70" t="n">
         <v>0.0</v>
@@ -18311,11 +18516,14 @@
       </c>
       <c r="CE70" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CF70" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B71" t="n">
         <v>0.0</v>
@@ -18562,11 +18770,14 @@
       </c>
       <c r="CE71" t="n">
         <v>223.0</v>
+      </c>
+      <c r="CF71" t="n">
+        <v>112.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B72" t="n">
         <v>0.0</v>
@@ -18813,11 +19024,14 @@
       </c>
       <c r="CE72" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CF72" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B73" t="n">
         <v>0.0</v>
@@ -19064,11 +19278,14 @@
       </c>
       <c r="CE73" t="n">
         <v>16.0</v>
+      </c>
+      <c r="CF73" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B74" t="n">
         <v>0.0</v>
@@ -19314,12 +19531,15 @@
         <v>0.0</v>
       </c>
       <c r="CE74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF74" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B75" t="n">
         <v>0.0</v>
@@ -19566,11 +19786,14 @@
       </c>
       <c r="CE75" t="n">
         <v>7.0</v>
+      </c>
+      <c r="CF75" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B76" t="n">
         <v>0.0</v>
@@ -19816,12 +20039,15 @@
         <v>2.0</v>
       </c>
       <c r="CE76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF76" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B77" t="n">
         <v>0.0</v>
@@ -20068,11 +20294,14 @@
       </c>
       <c r="CE77" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CF77" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B78" t="n">
         <v>0.0</v>
@@ -20319,11 +20548,14 @@
       </c>
       <c r="CE78" t="n">
         <v>6.0</v>
+      </c>
+      <c r="CF78" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B79" t="n">
         <v>0.0</v>
@@ -20569,12 +20801,15 @@
         <v>0.0</v>
       </c>
       <c r="CE79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF79" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B80" t="n">
         <v>0.0</v>
@@ -20821,11 +21056,14 @@
       </c>
       <c r="CE80" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF80" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B81" t="n">
         <v>0.0</v>
@@ -21071,12 +21309,15 @@
         <v>0.0</v>
       </c>
       <c r="CE81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF81" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B82" t="n">
         <v>13.0</v>
@@ -21323,11 +21564,14 @@
       </c>
       <c r="CE82" t="n">
         <v>8.0</v>
+      </c>
+      <c r="CF82" t="n">
+        <v>240.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B83" t="n">
         <v>0.0</v>
@@ -21574,11 +21818,14 @@
       </c>
       <c r="CE83" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CF83" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B84" t="n">
         <v>0.0</v>
@@ -21825,11 +22072,14 @@
       </c>
       <c r="CE84" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CF84" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B85" t="n">
         <v>0.0</v>
@@ -22076,11 +22326,14 @@
       </c>
       <c r="CE85" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CF85" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B86" t="n">
         <v>0.0</v>
@@ -22326,12 +22579,15 @@
         <v>0.0</v>
       </c>
       <c r="CE86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF86" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B87" t="n">
         <v>0.0</v>
@@ -22578,11 +22834,14 @@
       </c>
       <c r="CE87" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF87" t="n">
+        <v>149.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B88" t="n">
         <v>0.0</v>
@@ -22829,11 +23088,14 @@
       </c>
       <c r="CE88" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF88" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B89" t="n">
         <v>0.0</v>
@@ -23080,11 +23342,14 @@
       </c>
       <c r="CE89" t="n">
         <v>29.0</v>
+      </c>
+      <c r="CF89" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B90" t="n">
         <v>0.0</v>
@@ -23330,12 +23595,15 @@
         <v>0.0</v>
       </c>
       <c r="CE90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF90" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B91" t="n">
         <v>0.0</v>
@@ -23581,12 +23849,15 @@
         <v>0.0</v>
       </c>
       <c r="CE91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF91" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B92" t="n">
         <v>0.0</v>
@@ -23833,11 +24104,14 @@
       </c>
       <c r="CE92" t="n">
         <v>14.0</v>
+      </c>
+      <c r="CF92" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B93" t="n">
         <v>0.0</v>
@@ -24084,11 +24358,14 @@
       </c>
       <c r="CE93" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF93" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B94" t="n">
         <v>0.0</v>
@@ -24334,12 +24611,15 @@
         <v>0.0</v>
       </c>
       <c r="CE94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF94" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B95" t="n">
         <v>0.0</v>
@@ -24586,11 +24866,14 @@
       </c>
       <c r="CE95" t="n">
         <v>50.0</v>
+      </c>
+      <c r="CF95" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B96" t="n">
         <v>0.0</v>
@@ -24837,11 +25120,14 @@
       </c>
       <c r="CE96" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CF96" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B97" t="n">
         <v>0.0</v>
@@ -25088,11 +25374,14 @@
       </c>
       <c r="CE97" t="n">
         <v>43.0</v>
+      </c>
+      <c r="CF97" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B98" t="n">
         <v>0.0</v>
@@ -25338,12 +25627,15 @@
         <v>0.0</v>
       </c>
       <c r="CE98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF98" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B99" t="n">
         <v>0.0</v>
@@ -25590,11 +25882,14 @@
       </c>
       <c r="CE99" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="CF99" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B100" t="n">
         <v>0.0</v>
@@ -25840,12 +26135,15 @@
         <v>0.0</v>
       </c>
       <c r="CE100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF100" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B101" t="n">
         <v>0.0</v>
@@ -26092,11 +26390,14 @@
       </c>
       <c r="CE101" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="CF101" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B102" t="n">
         <v>0.0</v>
@@ -26342,12 +26643,15 @@
         <v>0.0</v>
       </c>
       <c r="CE102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF102" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B103" t="n">
         <v>11.0</v>
@@ -26594,11 +26898,14 @@
       </c>
       <c r="CE103" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF103" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B104" t="n">
         <v>0.0</v>
@@ -26844,12 +27151,15 @@
         <v>0.0</v>
       </c>
       <c r="CE104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF104" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B105" t="n">
         <v>0.0</v>
@@ -27096,11 +27406,14 @@
       </c>
       <c r="CE105" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CF105" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B106" t="n">
         <v>0.0</v>
@@ -27347,11 +27660,14 @@
       </c>
       <c r="CE106" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF106" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B107" t="n">
         <v>0.0</v>
@@ -27597,12 +27913,15 @@
         <v>20.0</v>
       </c>
       <c r="CE107" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF107" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B108" t="n">
         <v>0.0</v>
@@ -27849,11 +28168,14 @@
       </c>
       <c r="CE108" t="n">
         <v>73.0</v>
+      </c>
+      <c r="CF108" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B109" t="n">
         <v>0.0</v>
@@ -28100,11 +28422,14 @@
       </c>
       <c r="CE109" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF109" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B110" t="n">
         <v>0.0</v>
@@ -28351,11 +28676,14 @@
       </c>
       <c r="CE110" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CF110" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B111" t="n">
         <v>0.0</v>
@@ -28602,11 +28930,14 @@
       </c>
       <c r="CE111" t="n">
         <v>245.0</v>
+      </c>
+      <c r="CF111" t="n">
+        <v>262.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B112" t="n">
         <v>0.0</v>
@@ -28853,11 +29184,14 @@
       </c>
       <c r="CE112" t="n">
         <v>7.0</v>
+      </c>
+      <c r="CF112" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B113" t="n">
         <v>0.0</v>
@@ -29104,11 +29438,14 @@
       </c>
       <c r="CE113" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF113" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B114" t="n">
         <v>0.0</v>
@@ -29355,11 +29692,14 @@
       </c>
       <c r="CE114" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF114" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B115" t="n">
         <v>0.0</v>
@@ -29606,11 +29946,14 @@
       </c>
       <c r="CE115" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CF115" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B116" t="n">
         <v>0.0</v>
@@ -29857,11 +30200,14 @@
       </c>
       <c r="CE116" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CF116" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B117" t="n">
         <v>0.0</v>
@@ -30107,12 +30453,15 @@
         <v>7.0</v>
       </c>
       <c r="CE117" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CF117" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B118" t="n">
         <v>0.0</v>
@@ -30358,12 +30707,15 @@
         <v>0.0</v>
       </c>
       <c r="CE118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF118" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B119" t="n">
         <v>0.0</v>
@@ -30609,12 +30961,15 @@
         <v>0.0</v>
       </c>
       <c r="CE119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF119" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B120" t="n">
         <v>0.0</v>
@@ -30861,11 +31216,14 @@
       </c>
       <c r="CE120" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF120" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B121" t="n">
         <v>0.0</v>
@@ -31111,12 +31469,15 @@
         <v>2.0</v>
       </c>
       <c r="CE121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF121" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B122" t="n">
         <v>0.0</v>
@@ -31362,12 +31723,15 @@
         <v>1.0</v>
       </c>
       <c r="CE122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF122" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B123" t="n">
         <v>0.0</v>
@@ -31614,11 +31978,14 @@
       </c>
       <c r="CE123" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CF123" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B124" t="n">
         <v>0.0</v>
@@ -31865,11 +32232,14 @@
       </c>
       <c r="CE124" t="n">
         <v>29.0</v>
+      </c>
+      <c r="CF124" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B125" t="n">
         <v>0.0</v>
@@ -32116,11 +32486,14 @@
       </c>
       <c r="CE125" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF125" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B126" t="n">
         <v>0.0</v>
@@ -32366,12 +32739,15 @@
         <v>0.0</v>
       </c>
       <c r="CE126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF126" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B127" t="n">
         <v>0.0</v>
@@ -32618,11 +32994,14 @@
       </c>
       <c r="CE127" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF127" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B128" t="n">
         <v>0.0</v>
@@ -32869,11 +33248,14 @@
       </c>
       <c r="CE128" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CF128" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B129" t="n">
         <v>0.0</v>
@@ -33120,11 +33502,14 @@
       </c>
       <c r="CE129" t="n">
         <v>36.0</v>
+      </c>
+      <c r="CF129" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B130" t="n">
         <v>0.0</v>
@@ -33371,11 +33756,14 @@
       </c>
       <c r="CE130" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CF130" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B131" t="n">
         <v>0.0</v>
@@ -33622,11 +34010,14 @@
       </c>
       <c r="CE131" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CF131" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B132" t="n">
         <v>0.0</v>
@@ -33873,11 +34264,14 @@
       </c>
       <c r="CE132" t="n">
         <v>10.0</v>
+      </c>
+      <c r="CF132" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B133" t="n">
         <v>0.0</v>
@@ -34124,11 +34518,14 @@
       </c>
       <c r="CE133" t="n">
         <v>49.0</v>
+      </c>
+      <c r="CF133" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B134" t="n">
         <v>0.0</v>
@@ -34374,12 +34771,15 @@
         <v>0.0</v>
       </c>
       <c r="CE134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF134" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B135" t="n">
         <v>0.0</v>
@@ -34625,12 +35025,15 @@
         <v>-1.0</v>
       </c>
       <c r="CE135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF135" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B136" t="n">
         <v>0.0</v>
@@ -34877,11 +35280,14 @@
       </c>
       <c r="CE136" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CF136" t="n">
+        <v>66.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B137" t="n">
         <v>0.0</v>
@@ -35128,11 +35534,14 @@
       </c>
       <c r="CE137" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CF137" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B138" t="n">
         <v>0.0</v>
@@ -35378,12 +35787,15 @@
         <v>0.0</v>
       </c>
       <c r="CE138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF138" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B139" t="n">
         <v>0.0</v>
@@ -35630,11 +36042,14 @@
       </c>
       <c r="CE139" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CF139" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B140" t="n">
         <v>0.0</v>
@@ -35881,11 +36296,14 @@
       </c>
       <c r="CE140" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF140" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B141" t="n">
         <v>0.0</v>
@@ -36132,11 +36550,14 @@
       </c>
       <c r="CE141" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CF141" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B142" t="n">
         <v>0.0</v>
@@ -36383,11 +36804,14 @@
       </c>
       <c r="CE142" t="n">
         <v>16.0</v>
+      </c>
+      <c r="CF142" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B143" t="n">
         <v>7.0</v>
@@ -36634,11 +37058,14 @@
       </c>
       <c r="CE143" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF143" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B144" t="n">
         <v>0.0</v>
@@ -36885,11 +37312,14 @@
       </c>
       <c r="CE144" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CF144" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B145" t="n">
         <v>0.0</v>
@@ -37135,12 +37565,15 @@
         <v>0.0</v>
       </c>
       <c r="CE145" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF145" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B146" t="n">
         <v>0.0</v>
@@ -37387,11 +37820,14 @@
       </c>
       <c r="CE146" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CF146" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B147" t="n">
         <v>0.0</v>
@@ -37638,11 +38074,14 @@
       </c>
       <c r="CE147" t="n">
         <v>11.0</v>
+      </c>
+      <c r="CF147" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B148" t="n">
         <v>0.0</v>
@@ -37888,12 +38327,15 @@
         <v>0.0</v>
       </c>
       <c r="CE148" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF148" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B149" t="n">
         <v>1.0</v>
@@ -38140,11 +38582,14 @@
       </c>
       <c r="CE149" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CF149" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B150" t="n">
         <v>0.0</v>
@@ -38391,11 +38836,14 @@
       </c>
       <c r="CE150" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF150" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B151" t="n">
         <v>0.0</v>
@@ -38641,12 +39089,15 @@
         <v>0.0</v>
       </c>
       <c r="CE151" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF151" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B152" t="n">
         <v>0.0</v>
@@ -38892,12 +39343,15 @@
         <v>5.0</v>
       </c>
       <c r="CE152" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF152" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B153" t="n">
         <v>0.0</v>
@@ -39144,11 +39598,14 @@
       </c>
       <c r="CE153" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CF153" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B154" t="n">
         <v>0.0</v>
@@ -39394,12 +39851,15 @@
         <v>0.0</v>
       </c>
       <c r="CE154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B155" t="n">
         <v>0.0</v>
@@ -39645,12 +40105,15 @@
         <v>0.0</v>
       </c>
       <c r="CE155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF155" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B156" t="n">
         <v>0.0</v>
@@ -39896,12 +40359,15 @@
         <v>0.0</v>
       </c>
       <c r="CE156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF156" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B157" t="n">
         <v>0.0</v>
@@ -40147,12 +40613,15 @@
         <v>3.0</v>
       </c>
       <c r="CE157" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF157" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B158" t="n">
         <v>0.0</v>
@@ -40398,12 +40867,15 @@
         <v>0.0</v>
       </c>
       <c r="CE158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF158" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B159" t="n">
         <v>0.0</v>
@@ -40649,12 +41121,15 @@
         <v>0.0</v>
       </c>
       <c r="CE159" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF159" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B160" t="n">
         <v>0.0</v>
@@ -40901,11 +41376,14 @@
       </c>
       <c r="CE160" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF160" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B161" t="n">
         <v>0.0</v>
@@ -41152,11 +41630,14 @@
       </c>
       <c r="CE161" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CF161" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B162" t="n">
         <v>0.0</v>
@@ -41402,12 +41883,15 @@
         <v>0.0</v>
       </c>
       <c r="CE162" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF162" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B163" t="n">
         <v>0.0</v>
@@ -41654,11 +42138,14 @@
       </c>
       <c r="CE163" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CF163" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B164" t="n">
         <v>0.0</v>
@@ -41904,12 +42391,15 @@
         <v>0.0</v>
       </c>
       <c r="CE164" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF164" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B165" t="n">
         <v>0.0</v>
@@ -42155,12 +42645,15 @@
         <v>0.0</v>
       </c>
       <c r="CE165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF165" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B166" t="n">
         <v>0.0</v>
@@ -42406,12 +42899,15 @@
         <v>11.0</v>
       </c>
       <c r="CE166" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CF166" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B167" t="n">
         <v>0.0</v>
@@ -42658,11 +43154,14 @@
       </c>
       <c r="CE167" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CF167" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B168" t="n">
         <v>0.0</v>
@@ -42908,12 +43407,15 @@
         <v>0.0</v>
       </c>
       <c r="CE168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF168" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B169" t="n">
         <v>0.0</v>
@@ -43159,12 +43661,15 @@
         <v>130.0</v>
       </c>
       <c r="CE169" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF169" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B170" t="n">
         <v>0.0</v>
@@ -43410,12 +43915,15 @@
         <v>0.0</v>
       </c>
       <c r="CE170" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF170" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B171" t="n">
         <v>0.0</v>
@@ -43661,12 +44169,15 @@
         <v>0.0</v>
       </c>
       <c r="CE171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF171" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B172" t="n">
         <v>0.0</v>
@@ -43913,11 +44424,14 @@
       </c>
       <c r="CE172" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF172" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B173" t="n">
         <v>0.0</v>
@@ -44164,11 +44678,14 @@
       </c>
       <c r="CE173" t="n">
         <v>95.0</v>
+      </c>
+      <c r="CF173" t="n">
+        <v>160.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B174" t="n">
         <v>0.0</v>
@@ -44415,11 +44932,14 @@
       </c>
       <c r="CE174" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF174" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B175" t="n">
         <v>0.0</v>
@@ -44666,11 +45186,14 @@
       </c>
       <c r="CE175" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF175" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B176" t="n">
         <v>0.0</v>
@@ -44916,12 +45439,15 @@
         <v>-2.0</v>
       </c>
       <c r="CE176" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF176" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B177" t="n">
         <v>0.0</v>
@@ -45168,11 +45694,14 @@
       </c>
       <c r="CE177" t="n">
         <v>7.0</v>
+      </c>
+      <c r="CF177" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B178" t="n">
         <v>0.0</v>
@@ -45419,11 +45948,14 @@
       </c>
       <c r="CE178" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF178" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B179" t="n">
         <v>0.0</v>
@@ -45670,11 +46202,14 @@
       </c>
       <c r="CE179" t="n">
         <v>11.0</v>
+      </c>
+      <c r="CF179" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B180" t="n">
         <v>0.0</v>
@@ -45920,12 +46455,15 @@
         <v>0.0</v>
       </c>
       <c r="CE180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF180" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B181" t="n">
         <v>23.0</v>
@@ -46172,11 +46710,14 @@
       </c>
       <c r="CE181" t="n">
         <v>63.0</v>
+      </c>
+      <c r="CF181" t="n">
+        <v>80.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B182" t="n">
         <v>0.0</v>
@@ -46422,12 +46963,15 @@
         <v>1.0</v>
       </c>
       <c r="CE182" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF182" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B183" t="n">
         <v>0.0</v>
@@ -46674,11 +47218,14 @@
       </c>
       <c r="CE183" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF183" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B184" t="n">
         <v>0.0</v>
@@ -46925,11 +47472,14 @@
       </c>
       <c r="CE184" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF184" t="n">
+        <v>102.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B185" t="n">
         <v>0.0</v>
@@ -47176,11 +47726,14 @@
       </c>
       <c r="CE185" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CF185" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B186" t="n">
         <v>0.0</v>
@@ -47427,11 +47980,14 @@
       </c>
       <c r="CE186" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CF186" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B187" t="n">
         <v>0.0</v>
@@ -47678,11 +48234,14 @@
       </c>
       <c r="CE187" t="n">
         <v>21.0</v>
+      </c>
+      <c r="CF187" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B188" t="n">
         <v>0.0</v>
@@ -47929,11 +48488,14 @@
       </c>
       <c r="CE188" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF188" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B189" t="n">
         <v>0.0</v>
@@ -48179,12 +48741,15 @@
         <v>1.0</v>
       </c>
       <c r="CE189" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF189" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B190" t="n">
         <v>0.0</v>
@@ -48431,11 +48996,14 @@
       </c>
       <c r="CE190" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF190" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B191" t="n">
         <v>0.0</v>
@@ -48681,12 +49249,15 @@
         <v>0.0</v>
       </c>
       <c r="CE191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF191" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B192" t="n">
         <v>0.0</v>
@@ -48933,11 +49504,14 @@
       </c>
       <c r="CE192" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CF192" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B193" t="n">
         <v>0.0</v>
@@ -49184,11 +49758,14 @@
       </c>
       <c r="CE193" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CF193" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B194" t="n">
         <v>0.0</v>
@@ -49434,12 +50011,15 @@
         <v>0.0</v>
       </c>
       <c r="CE194" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF194" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B195" t="n">
         <v>0.0</v>
@@ -49686,11 +50266,14 @@
       </c>
       <c r="CE195" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF195" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B196" t="n">
         <v>0.0</v>
@@ -49937,11 +50520,14 @@
       </c>
       <c r="CE196" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CF196" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B197" t="n">
         <v>0.0</v>
@@ -50187,12 +50773,15 @@
         <v>0.0</v>
       </c>
       <c r="CE197" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CF197" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B198" t="n">
         <v>0.0</v>
@@ -50439,11 +51028,14 @@
       </c>
       <c r="CE198" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CF198" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B199" t="n">
         <v>0.0</v>
@@ -50690,11 +51282,14 @@
       </c>
       <c r="CE199" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CF199" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B200" t="n">
         <v>0.0</v>
@@ -50940,12 +51535,15 @@
         <v>1.0</v>
       </c>
       <c r="CE200" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF200" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B201" t="n">
         <v>0.0</v>
@@ -51192,11 +51790,14 @@
       </c>
       <c r="CE201" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF201" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B202" t="n">
         <v>0.0</v>
@@ -51443,11 +52044,14 @@
       </c>
       <c r="CE202" t="n">
         <v>27.0</v>
+      </c>
+      <c r="CF202" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B203" t="n">
         <v>0.0</v>
@@ -51694,11 +52298,14 @@
       </c>
       <c r="CE203" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CF203" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B204" t="n">
         <v>0.0</v>
@@ -51945,11 +52552,14 @@
       </c>
       <c r="CE204" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CF204" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B205" t="n">
         <v>0.0</v>
@@ -52196,11 +52806,14 @@
       </c>
       <c r="CE205" t="n">
         <v>10.0</v>
+      </c>
+      <c r="CF205" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B206" t="n">
         <v>0.0</v>
@@ -52447,11 +53060,14 @@
       </c>
       <c r="CE206" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF206" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B207" t="n">
         <v>0.0</v>
@@ -52698,11 +53314,14 @@
       </c>
       <c r="CE207" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CF207" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B208" t="n">
         <v>0.0</v>
@@ -52948,12 +53567,15 @@
         <v>0.0</v>
       </c>
       <c r="CE208" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF208" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B209" t="n">
         <v>0.0</v>
@@ -53199,12 +53821,15 @@
         <v>0.0</v>
       </c>
       <c r="CE209" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF209" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B210" t="n">
         <v>0.0</v>
@@ -53451,11 +54076,14 @@
       </c>
       <c r="CE210" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CF210" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B211" t="n">
         <v>0.0</v>
@@ -53701,12 +54329,15 @@
         <v>0.0</v>
       </c>
       <c r="CE211" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF211" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B212" t="n">
         <v>0.0</v>
@@ -53953,11 +54584,14 @@
       </c>
       <c r="CE212" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CF212" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B213" t="n">
         <v>1.0</v>
@@ -54204,11 +54838,14 @@
       </c>
       <c r="CE213" t="n">
         <v>8.0</v>
+      </c>
+      <c r="CF213" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B214" t="n">
         <v>0.0</v>
@@ -54454,12 +55091,15 @@
         <v>0.0</v>
       </c>
       <c r="CE214" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF214" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B215" t="n">
         <v>0.0</v>
@@ -54706,11 +55346,14 @@
       </c>
       <c r="CE215" t="n">
         <v>84.0</v>
+      </c>
+      <c r="CF215" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B216" t="n">
         <v>0.0</v>
@@ -54957,11 +55600,14 @@
       </c>
       <c r="CE216" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CF216" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B217" t="n">
         <v>0.0</v>
@@ -55208,11 +55854,14 @@
       </c>
       <c r="CE217" t="n">
         <v>15.0</v>
+      </c>
+      <c r="CF217" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B218" t="n">
         <v>0.0</v>
@@ -55458,12 +56107,15 @@
         <v>1.0</v>
       </c>
       <c r="CE218" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF218" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B219" t="n">
         <v>0.0</v>
@@ -55710,11 +56362,14 @@
       </c>
       <c r="CE219" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CF219" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B220" t="n">
         <v>0.0</v>
@@ -55961,11 +56616,14 @@
       </c>
       <c r="CE220" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CF220" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B221" t="n">
         <v>0.0</v>
@@ -56212,11 +56870,14 @@
       </c>
       <c r="CE221" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CF221" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B222" t="n">
         <v>0.0</v>
@@ -56463,11 +57124,14 @@
       </c>
       <c r="CE222" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF222" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B223" t="n">
         <v>178.0</v>
@@ -56714,11 +57378,14 @@
       </c>
       <c r="CE223" t="n">
         <v>304.0</v>
+      </c>
+      <c r="CF223" t="n">
+        <v>262.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B224" t="n">
         <v>35.0</v>
@@ -56965,11 +57632,14 @@
       </c>
       <c r="CE224" t="n">
         <v>69.0</v>
+      </c>
+      <c r="CF224" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B225" t="n">
         <v>0.0</v>
@@ -57215,12 +57885,15 @@
         <v>0.0</v>
       </c>
       <c r="CE225" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF225" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B226" t="n">
         <v>0.0</v>
@@ -57466,12 +58139,15 @@
         <v>0.0</v>
       </c>
       <c r="CE226" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF226" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B227" t="n">
         <v>0.0</v>
@@ -57717,12 +58393,15 @@
         <v>1.0</v>
       </c>
       <c r="CE227" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF227" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B228" t="n">
         <v>0.0</v>
@@ -57969,11 +58648,14 @@
       </c>
       <c r="CE228" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CF228" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B229" t="n">
         <v>38.0</v>
@@ -58220,11 +58902,14 @@
       </c>
       <c r="CE229" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF229" t="n">
+        <v>107.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B230" t="n">
         <v>0.0</v>
@@ -58470,12 +59155,15 @@
         <v>0.0</v>
       </c>
       <c r="CE230" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF230" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B231" t="n">
         <v>0.0</v>
@@ -58722,11 +59410,14 @@
       </c>
       <c r="CE231" t="n">
         <v>6.0</v>
+      </c>
+      <c r="CF231" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B232" t="n">
         <v>0.0</v>
@@ -58973,11 +59664,14 @@
       </c>
       <c r="CE232" t="n">
         <v>19.0</v>
+      </c>
+      <c r="CF232" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B233" t="n">
         <v>0.0</v>
@@ -59224,11 +59918,14 @@
       </c>
       <c r="CE233" t="n">
         <v>6.0</v>
+      </c>
+      <c r="CF233" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B234" t="n">
         <v>0.0</v>
@@ -59475,11 +60172,14 @@
       </c>
       <c r="CE234" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CF234" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B235" t="n">
         <v>0.0</v>
@@ -59726,11 +60426,14 @@
       </c>
       <c r="CE235" t="n">
         <v>18.0</v>
+      </c>
+      <c r="CF235" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B236" t="n">
         <v>0.0</v>
@@ -59976,12 +60679,15 @@
         <v>0.0</v>
       </c>
       <c r="CE236" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF236" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B237" t="n">
         <v>0.0</v>
@@ -60228,11 +60934,14 @@
       </c>
       <c r="CE237" t="n">
         <v>34.0</v>
+      </c>
+      <c r="CF237" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B238" t="n">
         <v>0.0</v>
@@ -60478,12 +61187,15 @@
         <v>0.0</v>
       </c>
       <c r="CE238" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF238" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B239" t="n">
         <v>3.0</v>
@@ -60730,11 +61442,14 @@
       </c>
       <c r="CE239" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CF239" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B240" t="n">
         <v>0.0</v>
@@ -60980,12 +61695,15 @@
         <v>1.0</v>
       </c>
       <c r="CE240" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CF240" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B241" t="n">
         <v>0.0</v>
@@ -61232,11 +61950,14 @@
       </c>
       <c r="CE241" t="n">
         <v>-7.0</v>
+      </c>
+      <c r="CF241" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B242" t="n">
         <v>0.0</v>
@@ -61483,11 +62204,14 @@
       </c>
       <c r="CE242" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF242" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B243" t="n">
         <v>0.0</v>
@@ -61733,12 +62457,15 @@
         <v>0.0</v>
       </c>
       <c r="CE243" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF243" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B244" t="n">
         <v>0.0</v>
@@ -61985,11 +62712,14 @@
       </c>
       <c r="CE244" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CF244" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B245" t="n">
         <v>0.0</v>
@@ -62236,11 +62966,14 @@
       </c>
       <c r="CE245" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CF245" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B246" t="n">
         <v>0.0</v>
@@ -62486,12 +63219,15 @@
         <v>0.0</v>
       </c>
       <c r="CE246" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF246" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B247" t="n">
         <v>0.0</v>
@@ -62738,11 +63474,14 @@
       </c>
       <c r="CE247" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CF247" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B248" t="n">
         <v>0.0</v>
@@ -62989,11 +63728,14 @@
       </c>
       <c r="CE248" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CF248" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B249" t="n">
         <v>0.0</v>
@@ -63240,11 +63982,14 @@
       </c>
       <c r="CE249" t="n">
         <v>-12.0</v>
+      </c>
+      <c r="CF249" t="n">
+        <v>215.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B250" t="n">
         <v>0.0</v>
@@ -63491,11 +64236,14 @@
       </c>
       <c r="CE250" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CF250" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B251" t="n">
         <v>0.0</v>
@@ -63742,11 +64490,14 @@
       </c>
       <c r="CE251" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="CF251" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B252" t="n">
         <v>0.0</v>
@@ -63992,12 +64743,15 @@
         <v>18.0</v>
       </c>
       <c r="CE252" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CF252" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B253" t="n">
         <v>0.0</v>
@@ -64244,11 +64998,14 @@
       </c>
       <c r="CE253" t="n">
         <v>11.0</v>
+      </c>
+      <c r="CF253" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B254" t="n">
         <v>0.0</v>
@@ -64494,12 +65251,15 @@
         <v>0.0</v>
       </c>
       <c r="CE254" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF254" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B255" t="n">
         <v>0.0</v>
@@ -64746,11 +65506,14 @@
       </c>
       <c r="CE255" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CF255" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B256" t="n">
         <v>0.0</v>
@@ -64997,11 +65760,14 @@
       </c>
       <c r="CE256" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CF256" t="n">
+        <v>-2.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B257" t="n">
         <v>0.0</v>
@@ -65248,11 +66014,14 @@
       </c>
       <c r="CE257" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CF257" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B258"/>
       <c r="C258"/>
@@ -65336,10 +66105,11 @@
       <c r="CC258"/>
       <c r="CD258"/>
       <c r="CE258"/>
+      <c r="CF258"/>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B259"/>
       <c r="C259"/>
@@ -65423,6 +66193,7 @@
       <c r="CC259"/>
       <c r="CD259"/>
       <c r="CE259"/>
+      <c r="CF259"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
